--- a/data/trans_camb/P16A13-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1619017646335146</v>
+        <v>0.1690507165293739</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.895510724826592</v>
+        <v>-1.680882286370575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.677981659995735</v>
+        <v>4.945732676620021</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6936206152639657</v>
+        <v>0.7644230720130379</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.1555190841694907</v>
+        <v>-0.205423973334449</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>10.11230016044705</v>
+        <v>10.11221447515749</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.200509325731025</v>
+        <v>1.192393604959966</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.36432517618536</v>
+        <v>-0.3995101291739145</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.872764604369312</v>
+        <v>8.709040625293472</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.477259688398256</v>
+        <v>4.369636604397495</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.111100156344828</v>
+        <v>2.065635369386675</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.28099405421454</v>
+        <v>10.47479126237108</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.518312650886328</v>
+        <v>4.53796300642652</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.339806516256379</v>
+        <v>4.057045853079718</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.89049791075546</v>
+        <v>14.78645929155399</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.018653214498282</v>
+        <v>4.066826084158649</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.546822960897578</v>
+        <v>2.553512274375449</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.34914191201727</v>
+        <v>12.3436395545483</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2140046921188868</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2.063357665026173</v>
+        <v>2.063357665026171</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.01419141029524112</v>
+        <v>0.01579911239800589</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3488873548558712</v>
+        <v>-0.3151543223793778</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.7787413423070535</v>
+        <v>0.8954552554773054</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.09120543044980736</v>
+        <v>0.1144409417426201</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0335727721593968</v>
+        <v>-0.04353881798194493</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.507452236340758</v>
+        <v>1.563282139204914</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2121045731334684</v>
+        <v>0.2099566529877878</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07127950767610937</v>
+        <v>-0.07277368885005063</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.530301526297736</v>
+        <v>1.503210563528905</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.188163826591886</v>
+        <v>1.245676547590329</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5452538138618522</v>
+        <v>0.5823971399509522</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.725306583691064</v>
+        <v>2.821740117643838</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9466947952450104</v>
+        <v>0.9434466078352814</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9354386169975589</v>
+        <v>0.840809967693972</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.1971151628152</v>
+        <v>3.133039077974888</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9231216475976299</v>
+        <v>0.9052335413008568</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5689835285240287</v>
+        <v>0.5600499340734777</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.818531381624465</v>
+        <v>2.739965855958495</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.0119528510806214</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.277453016649753</v>
+        <v>3.277453016649754</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.004270794795333</v>
@@ -878,7 +878,7 @@
         <v>0.4962186379410757</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.350291751494829</v>
+        <v>3.350291751494828</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4960343336952859</v>
+        <v>0.5396672222161285</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03592124247169034</v>
+        <v>0.05178695812724369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.307789324671762</v>
+        <v>2.463325210626341</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6335914770821625</v>
+        <v>-0.713969198385189</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.097985410385543</v>
+        <v>-0.9997839836311981</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.111191315470131</v>
+        <v>2.132306668241264</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3013571854123884</v>
+        <v>0.2378690570631883</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.2231371777288146</v>
+        <v>-0.2439966057453766</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.586971549307545</v>
+        <v>2.549061073138004</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.493813355214745</v>
+        <v>2.557654276826199</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.877973790595272</v>
+        <v>1.923660064860382</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.44192616766517</v>
+        <v>4.540708715860235</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.766103247004939</v>
+        <v>1.650198177434328</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.883328920582753</v>
+        <v>1.079984461219484</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.420126292631159</v>
+        <v>4.395217318002995</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.862713364505939</v>
+        <v>1.727501588575448</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.239923779009633</v>
+        <v>1.189223908174975</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.136257013031853</v>
+        <v>4.101366360104475</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.2469445347640933</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.667281667068526</v>
+        <v>1.667281667068525</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2305924539100437</v>
+        <v>0.2858708040432078</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.007574942848292997</v>
+        <v>0.006997856315676764</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.135484146621772</v>
+        <v>1.205206234878684</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2055218253726439</v>
+        <v>-0.2184054835687081</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3521762691785433</v>
+        <v>-0.3092492133603748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6183847267288566</v>
+        <v>0.6157378166295457</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1177346451841857</v>
+        <v>0.09176780160031386</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09974727720838583</v>
+        <v>-0.1062612322018006</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.026377513801765</v>
+        <v>0.9997977076258663</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.538094779731639</v>
+        <v>2.626948112047988</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.969865510664833</v>
+        <v>2.109814209152892</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.723116133578039</v>
+        <v>4.507694889567531</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.807011835038693</v>
+        <v>0.7854693552212939</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4010153551972761</v>
+        <v>0.5271595351481222</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.196971596336439</v>
+        <v>2.164305661979033</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.108530281549384</v>
+        <v>1.052283704273434</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7213386768065606</v>
+        <v>0.6899072887255621</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.515160483532172</v>
+        <v>2.4326289148457</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.165863601800419</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.068508210545089</v>
+        <v>3.068508210545088</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.844322457312815</v>
@@ -1092,7 +1092,7 @@
         <v>0.7605085037277172</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.180080890596647</v>
+        <v>3.180080890596645</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.62826865242407</v>
+        <v>-1.486686864672915</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.100073813185577</v>
+        <v>-2.335596421788355</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8765487707679579</v>
+        <v>0.8787828126934225</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.446462030064747</v>
+        <v>1.583190817197933</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.006351857829863866</v>
+        <v>0.1026894833183984</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.732428396064075</v>
+        <v>1.669216657038869</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5700190295233709</v>
+        <v>0.6754145603773629</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.604891005128724</v>
+        <v>-0.6590561932194235</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.632875661319133</v>
+        <v>1.785471155015798</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.56534373400239</v>
+        <v>3.53523865109254</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.949785077572092</v>
+        <v>1.737208490211608</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.175179356362912</v>
+        <v>5.290738447916186</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.725817707951914</v>
+        <v>6.581745488235477</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.987150064733506</v>
+        <v>4.054443303514732</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.021606780532148</v>
+        <v>5.133840790703521</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.160476279356806</v>
+        <v>4.304875177421128</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.251579639603726</v>
+        <v>2.240485038011874</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.504373025560509</v>
+        <v>4.472122078673276</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.0580188676415987</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.073360097045262</v>
+        <v>1.073360097045261</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>2.677194391138117</v>
@@ -1197,7 +1197,7 @@
         <v>0.3457989790538237</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.445965061385568</v>
+        <v>1.445965061385567</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.424694008042199</v>
+        <v>-0.4652605809342457</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5956300682961525</v>
+        <v>-0.6071090079234673</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1783499620705374</v>
+        <v>0.1918758260805913</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.4107619144322159</v>
+        <v>0.5554407858645477</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1187678416641545</v>
+        <v>-0.067662529444694</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6498056828656619</v>
+        <v>0.4377461161519383</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1742313194645149</v>
+        <v>0.2125727766570031</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2315626797474674</v>
+        <v>-0.2590382393799419</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5089266442055139</v>
+        <v>0.5614746791741205</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.838065584198119</v>
+        <v>1.937489579756839</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.086524945446021</v>
+        <v>0.9959277575969805</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.819141637386319</v>
+        <v>3.066782686759902</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>8.318876052900785</v>
+        <v>8.323388749259228</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5.691878245071203</v>
+        <v>5.81153821541706</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.330925221809914</v>
+        <v>7.638359608089784</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.730344740269626</v>
+        <v>2.654388152358665</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.491719452810687</v>
+        <v>1.478891091225058</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.892033615352612</v>
+        <v>2.942506380102582</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.3822393308257149</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.213429814257297</v>
+        <v>4.213429814257299</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5621046395122431</v>
+        <v>0.6044244699085026</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4586081676797196</v>
+        <v>-0.5610329951027427</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.67465630032372</v>
+        <v>2.747688160772499</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7483467869456764</v>
+        <v>0.7351307459937475</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.4578836977449863</v>
+        <v>-0.4349244841431054</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.766276299779972</v>
+        <v>3.872302464249735</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9673618383350346</v>
+        <v>0.9248498494172437</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.2163420293873051</v>
+        <v>-0.244774588647257</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.501174356971423</v>
+        <v>3.561084792392974</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.455789932056616</v>
+        <v>2.352377039311183</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.191557189333197</v>
+        <v>1.121611190998188</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.549672923099632</v>
+        <v>4.590394838859747</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.770733943250294</v>
+        <v>2.863797736739177</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.433140368210249</v>
+        <v>1.476773871866431</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.649960620259225</v>
+        <v>5.747672110007662</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.348840724282215</v>
+        <v>2.313709046917651</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.073706463928809</v>
+        <v>0.9557510955492919</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.86303857010093</v>
+        <v>4.873060471387515</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.122253627754521</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.347603552385035</v>
+        <v>1.347603552385036</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1897741405557755</v>
+        <v>0.2045416106100246</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.153394887967637</v>
+        <v>-0.1815885731314749</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8686771403387921</v>
+        <v>0.8641499772678374</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1842802248962412</v>
+        <v>0.1798413648269594</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1117785274970111</v>
+        <v>-0.108525548239829</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8955105602164002</v>
+        <v>0.9104015104659648</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2775820560312695</v>
+        <v>0.2729323098692963</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0641282117330058</v>
+        <v>-0.07420061290172689</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.009928432815131</v>
+        <v>0.9991213349540718</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.075103933839069</v>
+        <v>1.065780979491049</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5276907653092335</v>
+        <v>0.4902485330090401</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.074179865125801</v>
+        <v>2.026660684804579</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8943767214115864</v>
+        <v>0.9173408021482408</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4415879438812613</v>
+        <v>0.4741233213030189</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.782151990408962</v>
+        <v>1.853976964858411</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8415796867207933</v>
+        <v>0.8167793751305706</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3789651284509402</v>
+        <v>0.3311262922312078</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.718116306084668</v>
+        <v>1.719080760082736</v>
       </c>
     </row>
     <row r="28">
